--- a/biology/Botanique/Max_Joseph_Roemer/Max_Joseph_Roemer.xlsx
+++ b/biology/Botanique/Max_Joseph_Roemer/Max_Joseph_Roemer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Joseph Roemer ou Römer[1] (Haidhausen 21 avril 1791- † 1849) est un juge et un botaniste allemand dont le nom abrégé est M.Roem. Il a publié des manuels de botanique, des articles, seul on en collaboration. 765 espèces et genres de plantes portent son nom[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Joseph Roemer ou Römer (Haidhausen 21 avril 1791- † 1849) est un juge et un botaniste allemand dont le nom abrégé est M.Roem. Il a publié des manuels de botanique, des articles, seul on en collaboration. 765 espèces et genres de plantes portent son nom.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Joseph Römer obtient le diplôme de l'actuel Wilhelmsgymnasium de Munich en 1809. Il poursuit ensuite ses études de droit à l'Université de Landshut en 1811. 
 Il a été juge royal (Landrichter) à Aub où il commence à publier et puis vit à Würzbourg se consacrant à la taxonomie (genres Heteromeles, Pyracantha qu'il a introduit, Erythrocarpus, Merope, etc.).
